--- a/data/income_statement/2digits/size/95_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/95_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>95-Repair of computers and personal and household goods</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>95-Repair of computers and personal and household goods</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,263 +841,298 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>349495.46048</v>
+        <v>351109.68973</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>436504.05076</v>
+        <v>437788.72858</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>557484.47928</v>
+        <v>554976.2087300001</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>582295.65102</v>
+        <v>581405.8414299999</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>701627.8141699999</v>
+        <v>699397.3131499999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>716523.8936299999</v>
+        <v>735271.85912</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>897529.9838299999</v>
+        <v>908126.82714</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1064145.76026</v>
+        <v>1050418.03748</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>1279668.77973</v>
+        <v>1279313.37445</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1448122.25619</v>
+        <v>1454442.76775</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1602185.67428</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1634782.89859</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>2157353.839</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>327885.57104</v>
+        <v>329762.27848</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>412591.14794</v>
+        <v>413173.23587</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>531021.35289</v>
+        <v>529346.37694</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>548006.11285</v>
+        <v>547711.46824</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>644611.76352</v>
+        <v>640332.31811</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>662264.85933</v>
+        <v>677479.06446</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>854706.8925399999</v>
+        <v>852528.12304</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1009184.08148</v>
+        <v>993193.3351200001</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>1218879.92991</v>
+        <v>1215177.04901</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1381868.23865</v>
+        <v>1389998.97461</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1526658.97118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1561826.94308</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>2005361.118</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>5375.78373</v>
+        <v>4384.04973</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>4809.68814</v>
+        <v>4477.43325</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>6497.38388</v>
+        <v>5701.43625</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>10478.38749</v>
+        <v>10191.92874</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>31109.76373</v>
+        <v>34056.65642</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>25410.98527</v>
+        <v>28057.06377</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>7471.764270000001</v>
+        <v>20093.82735</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>8183.667199999999</v>
+        <v>10943.53026</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>13351.01238</v>
+        <v>17687.08966</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>12901.70332</v>
+        <v>11192.06336</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>22163.53461</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>20438.42159</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>79470.238</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>16234.10571</v>
+        <v>16963.36152</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>19103.21468</v>
+        <v>20138.05946</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>19965.74251</v>
+        <v>19928.39554</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>23811.15068</v>
+        <v>23502.44445</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>25906.28692</v>
+        <v>25008.33862</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>28848.04903</v>
+        <v>29735.73089</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>35351.32702</v>
+        <v>35504.87675</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>46778.01158</v>
+        <v>46281.1721</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>47437.83744</v>
+        <v>46449.23578</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>53352.31422</v>
+        <v>53251.72978</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>53363.16849</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>52517.53391999999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>72522.48299999999</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>5358.70937</v>
+        <v>5237.30593</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>8966.831560000001</v>
+        <v>8123.77522</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>8232.85007</v>
+        <v>8137.940439999999</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>7155.16816</v>
+        <v>7184.30066</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>9174.845170000001</v>
+        <v>9042.81624</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>9904.59204</v>
+        <v>10016.86783</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>9359.14703</v>
+        <v>15769.09383</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>9108.756439999999</v>
+        <v>9000.679620000001</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>9546.865320000001</v>
+        <v>9482.79343</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>20654.51347</v>
+        <v>22213.49804</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>30618.12852</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>31543.64732</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>35069.432</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>5148.34766</v>
+        <v>5087.452490000001</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>8766.34546</v>
+        <v>7961.782</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>6975.6638</v>
+        <v>6939.30586</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>5997.53704</v>
+        <v>5828.00837</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>7716.52858</v>
+        <v>7582.92776</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>8457.784900000001</v>
+        <v>8565.273449999999</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>8550.885960000001</v>
+        <v>14960.83276</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>8304.05953</v>
+        <v>8231.226860000001</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>9165.445039999999</v>
+        <v>9117.714330000001</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>19218.2871</v>
+        <v>20782.57421</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>29768.88444</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>30462.82475</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>33876.789</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>134.85079</v>
+        <v>74.34252000000001</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>197.54857</v>
+        <v>159.05569</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>1176.99155</v>
+        <v>1117.0497</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>1103.52303</v>
+        <v>1081.32309</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>1397.13319</v>
+        <v>1397.08319</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>1359.24106</v>
@@ -1205,22 +1141,27 @@
         <v>465.1074800000001</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>650.2262900000001</v>
+        <v>620.10752</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>115.1001</v>
+        <v>101.94851</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>1048.74097</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>454.3774100000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>453.61637</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>356.231</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>75.51092</v>
@@ -1229,238 +1170,268 @@
         <v>2.93753</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>80.19472</v>
+        <v>81.58488</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>54.10809</v>
+        <v>274.9692</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>61.18339999999999</v>
+        <v>62.80529</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>87.56608</v>
+        <v>92.35332000000001</v>
       </c>
       <c r="I12" s="48" t="n">
         <v>343.15359</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>154.47062</v>
+        <v>149.34524</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>266.32018</v>
+        <v>263.13059</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>387.4854</v>
+        <v>382.18286</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>394.86667</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>627.2062</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>836.412</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>344136.75111</v>
+        <v>345872.3838</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>427537.2192</v>
+        <v>429664.95336</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>549251.62921</v>
+        <v>546838.2682899999</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>575140.48286</v>
+        <v>574221.54077</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>692452.969</v>
+        <v>690354.49691</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>706619.30159</v>
+        <v>725254.9912899999</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>888170.8367999999</v>
+        <v>892357.7333099999</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1055037.00382</v>
+        <v>1041417.35786</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>1270121.91441</v>
+        <v>1269830.58102</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1427467.74272</v>
+        <v>1432229.26971</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1571567.54576</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1603239.25127</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>2122284.407</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>242573.93318</v>
+        <v>245887.68514</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>314561.28173</v>
+        <v>315116.16166</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>412645.12724</v>
+        <v>408207.19864</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>430590.89128</v>
+        <v>430022.35573</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>525121.85979</v>
+        <v>523145.70019</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>527643.25605</v>
+        <v>543404.55688</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>682909.4301700001</v>
+        <v>685646.97675</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>818734.7449399999</v>
+        <v>807714.5593499999</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>981074.8275599999</v>
+        <v>982235.17922</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1133624.51895</v>
+        <v>1139206.419</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1272617.34465</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1286813.05998</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1736114.407</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>19555.44745</v>
+        <v>17522.59221</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>19449.82151</v>
+        <v>18151.27522</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>23595.77023</v>
+        <v>20395.13153</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>21789.10324</v>
+        <v>19428.40156</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>26751.5369</v>
+        <v>24620.20656</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>29837.76505</v>
+        <v>33621.08853</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>34473.34384</v>
+        <v>33781.42147</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>28993.39094</v>
+        <v>28859.33287</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>47386.20004</v>
+        <v>50121.68822</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>57289.57184</v>
+        <v>57176.35371</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>65099.76302000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>64180.19469</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>112314.861</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>127006.91647</v>
+        <v>128280.15088</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>173652.68647</v>
+        <v>174207.87899</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>227554.71793</v>
+        <v>227336.60255</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>224878.94743</v>
+        <v>225132.72102</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>255895.58908</v>
+        <v>255299.56347</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>264306.63304</v>
+        <v>269231.65476</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>372693.87698</v>
+        <v>372807.2403300001</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>451677.85928</v>
+        <v>441940.10558</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>543269.99268</v>
+        <v>539864.6733500001</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>540584.3144500001</v>
+        <v>548936.2189300001</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>671706.1183199999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>676467.0352</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>934415.147</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>95545.99484</v>
+        <v>99619.36762999999</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>120764.96144</v>
+        <v>122197.04387</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>160627.16319</v>
+        <v>159607.98867</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>182891.36955</v>
+        <v>184429.76209</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>241698.55782</v>
+        <v>242490.05538</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>232378.61642</v>
+        <v>239435.97739</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>264320.16222</v>
+        <v>267651.11921</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>330270.39188</v>
+        <v>329198.63984</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>377894.75951</v>
+        <v>380089.83066</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>524516.9517100001</v>
+        <v>523077.58861</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>521063.0955999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>531747.53876</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>674238.4790000001</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>465.57442</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>693.8123099999999</v>
+        <v>559.96358</v>
       </c>
       <c r="E18" s="48" t="n">
         <v>867.47589</v>
@@ -1469,109 +1440,124 @@
         <v>1031.47106</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>776.17599</v>
+        <v>735.87478</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>1120.24154</v>
+        <v>1115.8362</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>11422.04713</v>
+        <v>11407.19574</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>7793.10284</v>
+        <v>7716.481059999999</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>12523.87533</v>
+        <v>12158.98699</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>11233.68095</v>
+        <v>10016.25775</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>14748.36771</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>14418.29133</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>15145.92</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>101562.81793</v>
+        <v>99984.69865999999</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>112975.93747</v>
+        <v>114548.7917</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>136606.50197</v>
+        <v>138631.06965</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>144549.59158</v>
+        <v>144199.18504</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>167331.10921</v>
+        <v>167208.79672</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>178976.04554</v>
+        <v>181850.43441</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>205261.40663</v>
+        <v>206710.75656</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>236302.25888</v>
+        <v>233702.79851</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>289047.08685</v>
+        <v>287595.4017999999</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>293843.22377</v>
+        <v>293022.85071</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>298950.20111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>316426.19129</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>386170</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>91331.89128</v>
+        <v>91799.22125</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>96998.85144</v>
+        <v>98161.88431000001</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>118181.05949</v>
+        <v>116524.40778</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>129694.45717</v>
+        <v>127967.83394</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>148583.61046</v>
+        <v>148941.41753</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>154091.5796</v>
+        <v>160777.53334</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>169995.57879</v>
+        <v>175672.66813</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>218864.53955</v>
+        <v>209590.71492</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>261137.10984</v>
+        <v>254890.56983</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>268711.6662100001</v>
+        <v>267644.31668</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>288005.39349</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>290512.76788</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>334358.747</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>1256.99647</v>
@@ -1583,19 +1569,19 @@
         <v>104.32706</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>620.04949</v>
+        <v>415.27068</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>427.11989</v>
+        <v>1259.11174</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>334.0645</v>
+        <v>3221.60108</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>75.16997000000001</v>
+        <v>2552.52211</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>2427.41336</v>
+        <v>339.9558799999999</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>1010.79946</v>
@@ -1604,169 +1590,194 @@
         <v>1767.9705</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>1856.64374</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1791.07191</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>773.645</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>23095.8152</v>
+        <v>22904.19134</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>26140.4274</v>
+        <v>26108.90265</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>24336.56807</v>
+        <v>23426.99117</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>24992.24079</v>
+        <v>24611.04372</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>32086.35335</v>
+        <v>31420.28655</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>31116.75614</v>
+        <v>31587.87523</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>33157.55429</v>
+        <v>33886.16053</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>39339.11983</v>
+        <v>38565.62138</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>50097.58551</v>
+        <v>49421.77467</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>65565.21814</v>
+        <v>65077.77009999999</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>64809.97195000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>66690.69662</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>72382.834</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>66979.07961</v>
+        <v>67638.03344</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>70857.36587000001</v>
+        <v>72051.92349000002</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>93740.16436000001</v>
+        <v>92993.08955</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>104082.16689</v>
+        <v>102941.51954</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>116070.13722</v>
+        <v>116262.01924</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>122640.75896</v>
+        <v>125968.05703</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>136762.85453</v>
+        <v>139233.98549</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>177098.00636</v>
+        <v>170685.13766</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>210028.72487</v>
+        <v>204457.9957</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>201378.47757</v>
+        <v>200798.57608</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>221338.7778</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>222030.99935</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>261202.268</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>10230.92665</v>
+        <v>8185.47741</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>15977.08603</v>
+        <v>16386.90739</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>18425.44248</v>
+        <v>22106.66187</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>14855.13441</v>
+        <v>16231.3511</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>18747.49875</v>
+        <v>18267.37919</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>24884.46594</v>
+        <v>21072.90107</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>35265.82784000001</v>
+        <v>31038.08843</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>17437.71933</v>
+        <v>24112.08359</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>27909.97701</v>
+        <v>32704.83197</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>25131.55756</v>
+        <v>25378.53403</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>10944.80762</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>25913.42341</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>51811.253</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>5385.237160000001</v>
+        <v>5969.02086</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>5406.824799999999</v>
+        <v>6896.933190000001</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>6080.51953</v>
+        <v>6389.322949999999</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>5044.56619</v>
+        <v>5191.40366</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>6220.32213</v>
+        <v>6187.22408</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>6879.91993</v>
+        <v>5937.19612</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>5091.08137</v>
+        <v>5882.774060000001</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>8199.10123</v>
+        <v>7872.01108</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>10621.27065</v>
+        <v>11651.61884</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>37896.86238000001</v>
+        <v>34439.51029999999</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>19954.31742</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>23462.17201</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>30494.239</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>4.3599</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0.06408</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>127.553</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,77 +1856,87 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>387.7966999999999</v>
+        <v>946.0890400000001</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>537.68585</v>
+        <v>1085.4272</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>516.80536</v>
+        <v>473.88038</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>382.84115</v>
+        <v>361.46501</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>623.84153</v>
+        <v>497.38149</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>679.96464</v>
+        <v>637.3075799999999</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>499.65431</v>
+        <v>527.8917299999999</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>551.7296699999999</v>
+        <v>564.13676</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>1047.54354</v>
+        <v>1484.9908</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>4113.48386</v>
+        <v>4041.39404</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>2733.86921</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>3460.52528</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1546.3</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>65.72383000000001</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>98.07863999999999</v>
+        <v>98.01613999999999</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>127.3252</v>
+        <v>126.57408</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>200.48827</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>186.14175</v>
+        <v>185.91139</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>476.61041</v>
+        <v>503.41448</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>28.13719</v>
+        <v>21.35719</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>85.47976000000001</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>348.3688</v>
+        <v>347.79714</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>33.59623000000001</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>4.48563</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>75.467</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>35.61585</v>
@@ -1937,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>65.49160000000001</v>
+        <v>59.7756</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>14.48932</v>
@@ -1957,14 +1988,19 @@
       <c r="M30" s="48" t="n">
         <v>821.74643</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>44.76430000000001</v>
+        <v>44.56777</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>50.50647</v>
@@ -1976,19 +2012,19 @@
         <v>152.15962</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>94.79982000000001</v>
+        <v>66.25375</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>99.10533</v>
+        <v>97.12951000000001</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>143.46146</v>
+        <v>118.27691</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>98.68875</v>
+        <v>97.70569</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>145.35932</v>
+        <v>145.16909</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>215.86948</v>
@@ -1996,50 +2032,60 @@
       <c r="M31" s="48" t="n">
         <v>65.93000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>179.196</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>1240.23366</v>
+        <v>1246.10124</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1416.08977</v>
+        <v>2234.45396</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>3105.57722</v>
+        <v>3370.23581</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1944.5588</v>
+        <v>2145.78875</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>2562.16241</v>
+        <v>2729.32647</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>2788.00885</v>
+        <v>1980.48455</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>2216.59647</v>
+        <v>3206.5454</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>3193.20848</v>
+        <v>3147.12918</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>4022.0813</v>
+        <v>5090.7417</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>26020.04377</v>
+        <v>22843.25415</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>6905.7174</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>9691.731240000001</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>16734.642</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0.31264</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>10.585</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>28.56477</v>
@@ -2113,146 +2164,166 @@
       <c r="M34" s="48" t="n">
         <v>11.7386</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>189.959</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>3577.86551</v>
+        <v>3597.68582</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>3138.08125</v>
+        <v>3262.1466</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>2048.79018</v>
+        <v>2136.61111</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>2097.57865</v>
+        <v>2064.56231</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>2192.52516</v>
+        <v>2153.21552</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>2821.74138</v>
+        <v>2704.37068</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>2165.81211</v>
+        <v>1971.283</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>4198.85709</v>
+        <v>3906.42221</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>4872.299389999999</v>
+        <v>4397.301810000001</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>6967.105689999999</v>
+        <v>6758.633049999999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>9410.76607</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>9405.95075</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>11630.537</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>2440.04025</v>
+        <v>2606.13998</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>1609.39161</v>
+        <v>2144.0002</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>5658.290819999999</v>
+        <v>7494.79351</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>2164.77444</v>
+        <v>2293.031</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>4826.45037</v>
+        <v>4693.46745</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>4786.11627</v>
+        <v>3273.3892</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>4098.52269</v>
+        <v>3735.20343</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>9318.03434</v>
+        <v>4174.34958</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>4838.67216</v>
+        <v>3834.998849999999</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>24174.74743</v>
+        <v>17443.12891</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>9143.339600000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>8157.30039</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>16268.322</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>112.4072</v>
+        <v>161.98087</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>86.21567999999999</v>
+        <v>83.43644</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>173.46288</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>115.94118</v>
+        <v>116.24735</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>129.99912</v>
+        <v>123.51256</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>103.62142</v>
+        <v>103.19366</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>375.18785</v>
+        <v>352.85349</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>234.28436</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>283.74825</v>
+        <v>283.20025</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>2352.78156</v>
+        <v>2356.21051</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>225.45248</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>239.35544</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>571.35</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>694.90227</v>
+        <v>733.67227</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>80.5005</v>
+        <v>123.43903</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>345.37923</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>59.01732</v>
+        <v>54.90032</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>180.55836</v>
+        <v>170.53036</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>401.17154</v>
+        <v>361.2625400000001</v>
       </c>
       <c r="I38" s="48" t="n">
         <v>225.48092</v>
@@ -2269,14 +2340,19 @@
       <c r="M38" s="48" t="n">
         <v>1125.97696</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>959.008</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>21.32555</v>
+        <v>21.07593</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>8.03228</v>
@@ -2288,7 +2364,7 @@
         <v>44.22933999999999</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>61.55689999999999</v>
+        <v>18.82038</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>2.10221</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>13.94249</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>20.78</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>1095.72698</v>
+        <v>1153.80335</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>1230.53226</v>
+        <v>1724.98719</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>4085.44059</v>
+        <v>5877.17562</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1654.30697</v>
+        <v>1786.40099</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>4122.58321</v>
+        <v>4048.87975</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>4069.13313</v>
+        <v>2544.87513</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>3263.07756</v>
+        <v>2997.14573</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>8534.22874</v>
+        <v>3419.60664</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>3949.26353</v>
+        <v>2953.86654</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>20075.60521</v>
+        <v>13341.03769</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>6803.95921</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>5802.73866</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>13123.167</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>14.70407</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2414,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>0.08739</v>
+        <v>0</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>113.84464</v>
@@ -2425,128 +2516,148 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>500.97418</v>
+        <v>520.90349</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>204.11089</v>
+        <v>204.10526</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>1052.62735</v>
+        <v>1097.39501</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>290.84718</v>
+        <v>290.82055</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>331.75278</v>
+        <v>331.7244</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>210.08797</v>
+        <v>261.95566</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>222.14405</v>
+        <v>147.09098</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>262.69798</v>
+        <v>233.72271</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>195.53562</v>
+        <v>187.8073</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>334.86732</v>
+        <v>334.38737</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>974.00846</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>975.28684</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>1594.017</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>3002.89699</v>
+        <v>2810.19315</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>2423.30185</v>
+        <v>2383.11975</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>3723.34373</v>
+        <v>3662.49323</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>4574.16216</v>
+        <v>4641.58068</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>5194.98882</v>
+        <v>5895.66723</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>5101.560890000001</v>
+        <v>7875.126720000001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>6977.38139</v>
+        <v>9471.34461</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>8384.59664</v>
+        <v>8767.34138</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>11745.47455</v>
+        <v>13256.34406</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>18017.1693</v>
+        <v>17737.17633</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>17985.11362</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>17129.33472</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>15749.959</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>2894.96395</v>
+        <v>2702.26011</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>2312.00497</v>
+        <v>2271.82287</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>3556.24589</v>
+        <v>3495.39539</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>4349.90879</v>
+        <v>4457.23769</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>5011.712530000001</v>
+        <v>5754.221759999999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>4993.685179999999</v>
+        <v>7753.53062</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>6902.84441</v>
+        <v>9372.56308</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>8286.60053</v>
+        <v>8669.34527</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>11392.31571</v>
+        <v>12903.18522</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>17642.36562</v>
+        <v>17362.37265</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>17476.86902</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>16479.27216</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>14959.534</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>107.93304</v>
@@ -2558,16 +2669,16 @@
         <v>167.09784</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>224.25337</v>
+        <v>184.34299</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>183.27629</v>
+        <v>141.44547</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>107.87571</v>
+        <v>121.5961</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>74.53698000000001</v>
+        <v>98.78153</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>97.99611</v>
@@ -2579,91 +2690,106 @@
         <v>374.80368</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>508.2446</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>650.06256</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>790.425</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>10173.22657</v>
+        <v>8738.165140000001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>17351.21737</v>
+        <v>18756.72063</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>15124.32746</v>
+        <v>17338.69808</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>13160.764</v>
+        <v>14488.14308</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>14946.38169</v>
+        <v>13865.46859</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>21876.70871</v>
+        <v>15861.58127</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>29281.00513</v>
+        <v>23714.31445</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>7934.18958</v>
+        <v>19042.40371</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>21947.10095</v>
+        <v>27265.1079</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>20836.50321</v>
+        <v>24637.73909</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>3770.67182</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>24088.96031</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>50287.211</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>2063.72332</v>
+        <v>2054.86978</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>2484.9087</v>
+        <v>2602.18467</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>5148.120269999999</v>
+        <v>5266.980860000001</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>4785.07863</v>
+        <v>4694.69214</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>4883.37701</v>
+        <v>4524.441559999999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>4816.1721</v>
+        <v>4769.74104</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>5040.943990000001</v>
+        <v>5239.360529999999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>16241.12195</v>
+        <v>7291.39823</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>11271.47901</v>
+        <v>10658.84998</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>13231.12545</v>
+        <v>12715.29414</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>19316.73735</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>19043.42619</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>19136.369</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>71.23314999999999</v>
@@ -2678,10 +2804,10 @@
         <v>18.00565</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>16.15975</v>
+        <v>16.17725</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>162.57742</v>
+        <v>128.84872</v>
       </c>
       <c r="I49" s="48" t="n">
         <v>1.14917</v>
@@ -2690,7 +2816,7 @@
         <v>122.06453</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>182.37278</v>
+        <v>82.87752</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>96.75354000000002</v>
@@ -2698,89 +2824,104 @@
       <c r="M49" s="48" t="n">
         <v>515.07011</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>18.518</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>1992.49017</v>
+        <v>1983.63663</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>2471.45228</v>
+        <v>2588.72825</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>4274.60879</v>
+        <v>4393.46938</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>4767.072980000001</v>
+        <v>4676.68649</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>4867.217259999999</v>
+        <v>4508.26431</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>4653.59468</v>
+        <v>4640.89232</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>5039.79482</v>
+        <v>5238.211359999999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>16119.05742</v>
+        <v>7169.3337</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>11089.10623</v>
+        <v>10575.97246</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>13134.37191</v>
+        <v>12618.5406</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>18801.66724</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>18528.35608</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>19117.851</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>1633.09154</v>
+        <v>1610.18119</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>2474.18578</v>
+        <v>2485.30867</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>15164.58119</v>
+        <v>15067.46858</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>3434.41435</v>
+        <v>3209.62823</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>3736.75862</v>
+        <v>3405.1935</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>5973.51308</v>
+        <v>5544.05348</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>5206.39687</v>
+        <v>4616.05558</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>15425.00765</v>
+        <v>14163.8441</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>7646.73473</v>
+        <v>7902.56566</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>18105.20769</v>
+        <v>17841.78842</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>9407.602299999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>9486.283780000002</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>8983.198</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>89.51771000000001</v>
@@ -2804,7 +2945,7 @@
         <v>163.09245</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>299.26649</v>
+        <v>301.20194</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>281.6383</v>
@@ -2815,203 +2956,231 @@
       <c r="M52" s="48" t="n">
         <v>17.84954</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>114.98092</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>471.28236</v>
+        <v>461.58485</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>244.56367</v>
+        <v>240.28227</v>
       </c>
       <c r="F53" s="48" t="n">
         <v>73.67466999999999</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>140.12145</v>
+        <v>136.49059</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1076.98203</v>
+        <v>1091.10289</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>217.75285</v>
+        <v>198.16816</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>27.08982</v>
+        <v>17.25355</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>158.31065</v>
+        <v>138.84481</v>
       </c>
       <c r="L53" s="48" t="n">
         <v>34.02922</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>97.42831</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>97.32018000000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>394.357</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>1428.59291</v>
+        <v>1405.68256</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>1970.06798</v>
+        <v>1990.88838</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>14874.49229</v>
+        <v>14781.66108</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>3203.9518</v>
+        <v>2979.16568</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>3561.80603</v>
+        <v>3233.87177</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>4681.51401</v>
+        <v>4237.933550000001</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>4825.551570000001</v>
+        <v>4254.79497</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>15098.65134</v>
+        <v>13845.38861</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>7206.78578</v>
+        <v>7482.082549999999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>18071.17847</v>
+        <v>17807.7592</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>9292.32445</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>9371.11406</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>8588.841</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>10603.85835</v>
+        <v>9182.853730000001</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>17361.94029</v>
+        <v>18873.59663</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>5107.86654</v>
+        <v>7538.210359999999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>14511.42828</v>
+        <v>15973.20699</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>16093.00008</v>
+        <v>14984.71665</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>20719.36773</v>
+        <v>15087.26883</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>29115.55225</v>
+        <v>24337.6194</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>8750.303879999999</v>
+        <v>12169.95784</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>25571.84523</v>
+        <v>30021.39222</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>15962.42097</v>
+        <v>19511.24481</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>13679.80687</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>33646.10272</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>60440.382</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>3088.34166</v>
+        <v>3102.2802</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>3977.74109</v>
+        <v>4149.15613</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>4482.81295</v>
+        <v>4965.82631</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>4252.24143</v>
+        <v>4165.44855</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>5635.300039999999</v>
+        <v>5288.36629</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>5673.642110000001</v>
+        <v>5475.20984</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>7935.211709999999</v>
+        <v>8083.23975</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>6877.621939999999</v>
+        <v>7184.89291</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>8658.329449999999</v>
+        <v>9385.872630000002</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>12244.65898</v>
+        <v>12149.8242</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>8706.529570000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>13185.06534</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>18275.923</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>7515.516689999999</v>
+        <v>6080.573530000001</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>13384.1992</v>
+        <v>14724.4405</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>625.0535899999999</v>
+        <v>2572.38405</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>10259.18685</v>
+        <v>11807.75844</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>10457.70004</v>
+        <v>9696.350359999999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>15045.72562</v>
+        <v>9612.05899</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>21180.34054</v>
+        <v>16254.37965</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>1872.68194</v>
+        <v>4985.06493</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>16913.51578</v>
+        <v>20635.51959</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>3717.76199</v>
+        <v>7361.42061</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>4973.277299999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>20461.03738</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>42164.459</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>481</v>
+        <v>453</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>487</v>
+        <v>450</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>467</v>
+        <v>441</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>504</v>
+        <v>469</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>578</v>
+        <v>522</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>650</v>
+        <v>574</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>514</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>